--- a/TABLE S4A.xlsx
+++ b/TABLE S4A.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documenti\Micaela Gentile\Tesi Francesca\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17B2B97F-960F-4ECE-96F9-1BB1737D21ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D17CDDD-DCEA-44AA-93B2-41861F3269B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="24892" windowHeight="14914" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
